--- a/src/main/resources/BlancRe.xlsx
+++ b/src/main/resources/BlancRe.xlsx
@@ -588,7 +588,7 @@
   <dimension ref="A1:AD3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:AD1"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -709,7 +709,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
       <c r="B3" s="11"/>
       <c r="C3" s="12"/>

--- a/src/main/resources/BlancRe.xlsx
+++ b/src/main/resources/BlancRe.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
   <si>
     <t>Брестская область</t>
   </si>
@@ -43,24 +43,6 @@
     <t>№ п/п</t>
   </si>
   <si>
-    <t>Брест</t>
-  </si>
-  <si>
-    <t>Витебск</t>
-  </si>
-  <si>
-    <t>Гомель</t>
-  </si>
-  <si>
-    <t>Гродно</t>
-  </si>
-  <si>
-    <t>Минск</t>
-  </si>
-  <si>
-    <t>Могилев</t>
-  </si>
-  <si>
     <t>Наименование подкарантинной продукции</t>
   </si>
   <si>
@@ -71,14 +53,14 @@
   </si>
   <si>
     <t xml:space="preserve">Информация
-ГУ "Главная государственная инспекция по семеноводству, карантину и защите растений"  о реэкспорте подкарантинной продукции importexport на основании данных выданных фитосанитарных сертификатов с  startDate по endDate     </t>
+ГУ "Главная государственная инспекция по семеноводству, карантину и защите растений"  о реэкспорте countryExport подкарантинной продукции  на основании данных выданных фитосанитарных сертификатов с  startDate по endDate     </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,12 +79,42 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
       <sz val="9"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="3">
@@ -118,7 +130,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -232,6 +244,17 @@
         <color rgb="FF3F3F3F"/>
       </right>
       <top/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
@@ -242,42 +265,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -585,69 +617,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD3"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="22.5546875" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" customWidth="1"/>
-    <col min="12" max="12" width="9.44140625" customWidth="1"/>
-    <col min="14" max="14" width="11.33203125" customWidth="1"/>
-    <col min="16" max="16" width="8.88671875" customWidth="1"/>
-    <col min="18" max="18" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="18" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3"/>
+    <row r="1" spans="1:18" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="15"/>
     </row>
-    <row r="2" spans="1:30" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C2" s="10"/>
-      <c r="D2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="D2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
       <c r="G2" s="6" t="s">
         <v>0</v>
       </c>
@@ -660,67 +678,31 @@
         <v>2</v>
       </c>
       <c r="L2" s="6"/>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="5"/>
-      <c r="O2" s="4" t="s">
+      <c r="N2" s="4"/>
+      <c r="O2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="4" t="s">
+      <c r="P2" s="4"/>
+      <c r="Q2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="R2" s="5"/>
-      <c r="S2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="R2" s="4"/>
     </row>
-    <row r="3" spans="1:30" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
       <c r="B3" s="11"/>
       <c r="C3" s="12"/>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>7</v>
@@ -757,47 +739,13 @@
       </c>
       <c r="R3" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="S3" s="2">
-        <v>2021</v>
-      </c>
-      <c r="T3" s="2">
-        <v>2021</v>
-      </c>
-      <c r="U3" s="2">
-        <v>2021</v>
-      </c>
-      <c r="V3" s="2">
-        <v>2021</v>
-      </c>
-      <c r="W3" s="2">
-        <v>2021</v>
-      </c>
-      <c r="X3" s="2">
-        <v>2021</v>
-      </c>
-      <c r="Y3" s="2">
-        <v>2022</v>
-      </c>
-      <c r="Z3" s="2">
-        <v>2022</v>
-      </c>
-      <c r="AA3" s="2">
-        <v>2022</v>
-      </c>
-      <c r="AB3" s="2">
-        <v>2022</v>
-      </c>
-      <c r="AC3" s="2">
-        <v>2022</v>
-      </c>
-      <c r="AD3" s="2">
-        <v>2022</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A1:AD1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="A1:R1"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="Q2:R2"/>
@@ -805,8 +753,6 @@
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/main/resources/BlancRe.xlsx
+++ b/src/main/resources/BlancRe.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="12">
   <si>
     <t>Брестская область</t>
   </si>
@@ -37,16 +37,10 @@
     <t>Могилевская область</t>
   </si>
   <si>
-    <t>поступило с startDate по endDate</t>
-  </si>
-  <si>
     <t>№ п/п</t>
   </si>
   <si>
     <t>Наименование подкарантинной продукции</t>
-  </si>
-  <si>
-    <t>поступило с 01.01.2021 по endDate</t>
   </si>
   <si>
     <t>ВСЕГО реэкспорт из третьих стран, тонн</t>
@@ -54,6 +48,9 @@
   <si>
     <t xml:space="preserve">Информация
 ГУ "Главная государственная инспекция по семеноводству, карантину и защите растений"  о реэкспорте countryExport подкарантинной продукции  на основании данных выданных фитосанитарных сертификатов с  startDate по endDate     </t>
+  </si>
+  <si>
+    <t>с startDate по endDate</t>
   </si>
 </sst>
 </file>
@@ -273,6 +270,33 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -284,33 +308,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -620,7 +617,7 @@
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -628,114 +625,114 @@
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="22.5546875" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" customWidth="1"/>
-    <col min="4" max="18" width="10.77734375" customWidth="1"/>
+    <col min="4" max="18" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="15"/>
+      <c r="A1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="11"/>
     </row>
     <row r="2" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="6" t="s">
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6" t="s">
+      <c r="H2" s="15"/>
+      <c r="I2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6" t="s">
+      <c r="J2" s="15"/>
+      <c r="K2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="3" t="s">
+      <c r="L2" s="15"/>
+      <c r="M2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="4"/>
-      <c r="O2" s="3" t="s">
+      <c r="N2" s="13"/>
+      <c r="O2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="3" t="s">
+      <c r="P2" s="13"/>
+      <c r="Q2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="R2" s="4"/>
+      <c r="R2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="12"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="8"/>
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="R3" s="2" t="s">
         <v>3</v>
